--- a/natmiOut/OldD2/LR-pairs_lrc2p/Slit3-Robo1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Slit3-Robo1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.730360065378714</v>
+        <v>0.8417399999999999</v>
       </c>
       <c r="H2">
-        <v>0.730360065378714</v>
+        <v>1.68348</v>
       </c>
       <c r="I2">
-        <v>0.01123674315430048</v>
+        <v>0.0119744574213572</v>
       </c>
       <c r="J2">
-        <v>0.01123674315430048</v>
+        <v>0.008423523143208028</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3525361129076</v>
+        <v>0.3526105</v>
       </c>
       <c r="N2">
-        <v>0.3525361129076</v>
+        <v>0.705221</v>
       </c>
       <c r="O2">
-        <v>0.02266695876843876</v>
+        <v>0.01850298645190735</v>
       </c>
       <c r="P2">
-        <v>0.02266695876843876</v>
+        <v>0.01407895989051319</v>
       </c>
       <c r="Q2">
-        <v>0.2574782984715525</v>
+        <v>0.29680636227</v>
       </c>
       <c r="R2">
-        <v>0.2574782984715525</v>
+        <v>1.18722544908</v>
       </c>
       <c r="S2">
-        <v>0.0002547027937700653</v>
+        <v>0.0002215632234363136</v>
       </c>
       <c r="T2">
-        <v>0.0002547027937700653</v>
+        <v>0.0001185944444700355</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.730360065378714</v>
+        <v>0.8417399999999999</v>
       </c>
       <c r="H3">
-        <v>0.730360065378714</v>
+        <v>1.68348</v>
       </c>
       <c r="I3">
-        <v>0.01123674315430048</v>
+        <v>0.0119744574213572</v>
       </c>
       <c r="J3">
-        <v>0.01123674315430048</v>
+        <v>0.008423523143208028</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.5535625572773</v>
+        <v>11.46237866666667</v>
       </c>
       <c r="N3">
-        <v>10.5535625572773</v>
+        <v>34.387136</v>
       </c>
       <c r="O3">
-        <v>0.6785607448069941</v>
+        <v>0.6014802088308917</v>
       </c>
       <c r="P3">
-        <v>0.6785607448069941</v>
+        <v>0.6865012648426838</v>
       </c>
       <c r="Q3">
-        <v>7.707900639311396</v>
+        <v>9.648342618879999</v>
       </c>
       <c r="R3">
-        <v>7.707900639311396</v>
+        <v>57.89005571327999</v>
       </c>
       <c r="S3">
-        <v>0.007624812803987024</v>
+        <v>0.007202399150434548</v>
       </c>
       <c r="T3">
-        <v>0.007624812803987024</v>
+        <v>0.005782759292243931</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.730360065378714</v>
+        <v>0.8417399999999999</v>
       </c>
       <c r="H4">
-        <v>0.730360065378714</v>
+        <v>1.68348</v>
       </c>
       <c r="I4">
-        <v>0.01123674315430048</v>
+        <v>0.0119744574213572</v>
       </c>
       <c r="J4">
-        <v>0.01123674315430048</v>
+        <v>0.008423523143208028</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.31979691957588</v>
+        <v>0.05152233333333334</v>
       </c>
       <c r="N4">
-        <v>0.31979691957588</v>
+        <v>0.154567</v>
       </c>
       <c r="O4">
-        <v>0.02056193202595423</v>
+        <v>0.002703597980313465</v>
       </c>
       <c r="P4">
-        <v>0.02056193202595423</v>
+        <v>0.003085759773740364</v>
       </c>
       <c r="Q4">
-        <v>0.2335668990893511</v>
+        <v>0.04336840886</v>
       </c>
       <c r="R4">
-        <v>0.2335668990893511</v>
+        <v>0.26021045316</v>
       </c>
       <c r="S4">
-        <v>0.0002310491489318329</v>
+        <v>3.23741188997309E-05</v>
       </c>
       <c r="T4">
-        <v>0.0002310491489318329</v>
+        <v>2.599296886848232E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.730360065378714</v>
+        <v>0.8417399999999999</v>
       </c>
       <c r="H5">
-        <v>0.730360065378714</v>
+        <v>1.68348</v>
       </c>
       <c r="I5">
-        <v>0.01123674315430048</v>
+        <v>0.0119744574213572</v>
       </c>
       <c r="J5">
-        <v>0.01123674315430048</v>
+        <v>0.008423523143208028</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>4.3269677876795</v>
+        <v>0.04769766666666667</v>
       </c>
       <c r="N5">
-        <v>4.3269677876795</v>
+        <v>0.143093</v>
       </c>
       <c r="O5">
-        <v>0.2782103643986128</v>
+        <v>0.002502901303622343</v>
       </c>
       <c r="P5">
-        <v>0.2782103643986128</v>
+        <v>0.002856694011683153</v>
       </c>
       <c r="Q5">
-        <v>3.160244476301189</v>
+        <v>0.04014903394</v>
       </c>
       <c r="R5">
-        <v>3.160244476301189</v>
+        <v>0.24089420364</v>
       </c>
       <c r="S5">
-        <v>0.003126178407611553</v>
+        <v>2.997088509008517E-05</v>
       </c>
       <c r="T5">
-        <v>0.003126178407611553</v>
+        <v>2.406342812047682E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>52.7889745212973</v>
+        <v>0.8417399999999999</v>
       </c>
       <c r="H6">
-        <v>52.7889745212973</v>
+        <v>1.68348</v>
       </c>
       <c r="I6">
-        <v>0.8121694711869955</v>
+        <v>0.0119744574213572</v>
       </c>
       <c r="J6">
-        <v>0.8121694711869955</v>
+        <v>0.008423523143208028</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3525361129076</v>
+        <v>0.414919</v>
       </c>
       <c r="N6">
-        <v>0.3525361129076</v>
+        <v>1.244757</v>
       </c>
       <c r="O6">
-        <v>0.02266695876843876</v>
+        <v>0.02177258089489379</v>
       </c>
       <c r="P6">
-        <v>0.02266695876843876</v>
+        <v>0.02485020139280528</v>
       </c>
       <c r="Q6">
-        <v>18.61001988211649</v>
+        <v>0.34925391906</v>
       </c>
       <c r="R6">
-        <v>18.61001988211649</v>
+        <v>2.09552351436</v>
       </c>
       <c r="S6">
-        <v>0.01840941191638034</v>
+        <v>0.0002607148428789609</v>
       </c>
       <c r="T6">
-        <v>0.01840941191638034</v>
+        <v>0.0002093262465456757</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>52.7889745212973</v>
+        <v>0.8417399999999999</v>
       </c>
       <c r="H7">
-        <v>52.7889745212973</v>
+        <v>1.68348</v>
       </c>
       <c r="I7">
-        <v>0.8121694711869955</v>
+        <v>0.0119744574213572</v>
       </c>
       <c r="J7">
-        <v>0.8121694711869955</v>
+        <v>0.008423523143208028</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.5535625572773</v>
+        <v>6.7278225</v>
       </c>
       <c r="N7">
-        <v>10.5535625572773</v>
+        <v>13.455645</v>
       </c>
       <c r="O7">
-        <v>0.6785607448069941</v>
+        <v>0.3530377245383715</v>
       </c>
       <c r="P7">
-        <v>0.6785607448069941</v>
+        <v>0.2686271200885743</v>
       </c>
       <c r="Q7">
-        <v>557.1117449450285</v>
+        <v>5.663077311149999</v>
       </c>
       <c r="R7">
-        <v>557.1117449450285</v>
+        <v>22.6523092446</v>
       </c>
       <c r="S7">
-        <v>0.5511063212781502</v>
+        <v>0.004227435200617561</v>
       </c>
       <c r="T7">
-        <v>0.5511063212781502</v>
+        <v>0.002262786762959427</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>52.7889745212973</v>
+        <v>57.09845533333333</v>
       </c>
       <c r="H8">
-        <v>52.7889745212973</v>
+        <v>171.295366</v>
       </c>
       <c r="I8">
-        <v>0.8121694711869955</v>
+        <v>0.8122734124721006</v>
       </c>
       <c r="J8">
-        <v>0.8121694711869955</v>
+        <v>0.8570998644624763</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.31979691957588</v>
+        <v>0.3526105</v>
       </c>
       <c r="N8">
-        <v>0.31979691957588</v>
+        <v>0.705221</v>
       </c>
       <c r="O8">
-        <v>0.02056193202595423</v>
+        <v>0.01850298645190735</v>
       </c>
       <c r="P8">
-        <v>0.02056193202595423</v>
+        <v>0.01407895989051319</v>
       </c>
       <c r="Q8">
-        <v>16.88175143948049</v>
+        <v>20.13351488431433</v>
       </c>
       <c r="R8">
-        <v>16.88175143948049</v>
+        <v>120.801089305886</v>
       </c>
       <c r="S8">
-        <v>0.0166997734601022</v>
+        <v>0.01502948394621583</v>
       </c>
       <c r="T8">
-        <v>0.0166997734601022</v>
+        <v>0.0120670746139315</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>52.7889745212973</v>
+        <v>57.09845533333333</v>
       </c>
       <c r="H9">
-        <v>52.7889745212973</v>
+        <v>171.295366</v>
       </c>
       <c r="I9">
-        <v>0.8121694711869955</v>
+        <v>0.8122734124721006</v>
       </c>
       <c r="J9">
-        <v>0.8121694711869955</v>
+        <v>0.8570998644624763</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.3269677876795</v>
+        <v>11.46237866666667</v>
       </c>
       <c r="N9">
-        <v>4.3269677876795</v>
+        <v>34.387136</v>
       </c>
       <c r="O9">
-        <v>0.2782103643986128</v>
+        <v>0.6014802088308917</v>
       </c>
       <c r="P9">
-        <v>0.2782103643986128</v>
+        <v>0.6865012648426838</v>
       </c>
       <c r="Q9">
-        <v>228.4161922982873</v>
+        <v>654.4841163124195</v>
       </c>
       <c r="R9">
-        <v>228.4161922982873</v>
+        <v>5890.357046811776</v>
       </c>
       <c r="S9">
-        <v>0.2259539645323627</v>
+        <v>0.4885663817615001</v>
       </c>
       <c r="T9">
-        <v>0.2259539645323627</v>
+        <v>0.5884001410499828</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.0206525426694897</v>
+        <v>57.09845533333333</v>
       </c>
       <c r="H10">
-        <v>0.0206525426694897</v>
+        <v>171.295366</v>
       </c>
       <c r="I10">
-        <v>0.0003177437108913572</v>
+        <v>0.8122734124721006</v>
       </c>
       <c r="J10">
-        <v>0.0003177437108913572</v>
+        <v>0.8570998644624763</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.3525361129076</v>
+        <v>0.05152233333333334</v>
       </c>
       <c r="N10">
-        <v>0.3525361129076</v>
+        <v>0.154567</v>
       </c>
       <c r="O10">
-        <v>0.02266695876843876</v>
+        <v>0.002703597980313465</v>
       </c>
       <c r="P10">
-        <v>0.02266695876843876</v>
+        <v>0.003085759773740364</v>
       </c>
       <c r="Q10">
-        <v>0.007280767114360247</v>
+        <v>2.941845648502444</v>
       </c>
       <c r="R10">
-        <v>0.007280767114360247</v>
+        <v>26.476610836522</v>
       </c>
       <c r="S10">
-        <v>7.202283593705118E-06</v>
+        <v>0.002196060757421897</v>
       </c>
       <c r="T10">
-        <v>7.202283593705118E-06</v>
+        <v>0.002644804283836628</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.0206525426694897</v>
+        <v>57.09845533333333</v>
       </c>
       <c r="H11">
-        <v>0.0206525426694897</v>
+        <v>171.295366</v>
       </c>
       <c r="I11">
-        <v>0.0003177437108913572</v>
+        <v>0.8122734124721006</v>
       </c>
       <c r="J11">
-        <v>0.0003177437108913572</v>
+        <v>0.8570998644624763</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>10.5535625572773</v>
+        <v>0.04769766666666667</v>
       </c>
       <c r="N11">
-        <v>10.5535625572773</v>
+        <v>0.143093</v>
       </c>
       <c r="O11">
-        <v>0.6785607448069941</v>
+        <v>0.002502901303622343</v>
       </c>
       <c r="P11">
-        <v>0.6785607448069941</v>
+        <v>0.002856694011683153</v>
       </c>
       <c r="Q11">
-        <v>0.2179579010292982</v>
+        <v>2.723463089670889</v>
       </c>
       <c r="R11">
-        <v>0.2179579010292982</v>
+        <v>24.511167807038</v>
       </c>
       <c r="S11">
-        <v>0.0002156084091201775</v>
+        <v>0.002033040182974189</v>
       </c>
       <c r="T11">
-        <v>0.0002156084091201775</v>
+        <v>0.002448472050224398</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.0206525426694897</v>
+        <v>57.09845533333333</v>
       </c>
       <c r="H12">
-        <v>0.0206525426694897</v>
+        <v>171.295366</v>
       </c>
       <c r="I12">
-        <v>0.0003177437108913572</v>
+        <v>0.8122734124721006</v>
       </c>
       <c r="J12">
-        <v>0.0003177437108913572</v>
+        <v>0.8570998644624763</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.31979691957588</v>
+        <v>0.414919</v>
       </c>
       <c r="N12">
-        <v>0.31979691957588</v>
+        <v>1.244757</v>
       </c>
       <c r="O12">
-        <v>0.02056193202595423</v>
+        <v>0.02177258089489379</v>
       </c>
       <c r="P12">
-        <v>0.02056193202595423</v>
+        <v>0.02485020139280528</v>
       </c>
       <c r="Q12">
-        <v>0.006604619527112228</v>
+        <v>23.69123398845134</v>
       </c>
       <c r="R12">
-        <v>0.006604619527112228</v>
+        <v>213.221105896062</v>
       </c>
       <c r="S12">
-        <v>6.53342458502254E-06</v>
+        <v>0.01768528858182024</v>
       </c>
       <c r="T12">
-        <v>6.53342458502254E-06</v>
+        <v>0.02129910424563865</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.0206525426694897</v>
+        <v>57.09845533333333</v>
       </c>
       <c r="H13">
-        <v>0.0206525426694897</v>
+        <v>171.295366</v>
       </c>
       <c r="I13">
-        <v>0.0003177437108913572</v>
+        <v>0.8122734124721006</v>
       </c>
       <c r="J13">
-        <v>0.0003177437108913572</v>
+        <v>0.8570998644624763</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.3269677876795</v>
+        <v>6.7278225</v>
       </c>
       <c r="N13">
-        <v>4.3269677876795</v>
+        <v>13.455645</v>
       </c>
       <c r="O13">
-        <v>0.2782103643986128</v>
+        <v>0.3530377245383715</v>
       </c>
       <c r="P13">
-        <v>0.2782103643986128</v>
+        <v>0.2686271200885743</v>
       </c>
       <c r="Q13">
-        <v>0.08936288686455832</v>
+        <v>384.148272506845</v>
       </c>
       <c r="R13">
-        <v>0.08936288686455832</v>
+        <v>2304.88963504107</v>
       </c>
       <c r="S13">
-        <v>8.839959359245196E-05</v>
+        <v>0.2867631572421684</v>
       </c>
       <c r="T13">
-        <v>8.839959359245196E-05</v>
+        <v>0.2302402682188623</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.0733340348819515</v>
+        <v>0.02523366666666666</v>
       </c>
       <c r="H14">
-        <v>0.0733340348819515</v>
+        <v>0.07570099999999999</v>
       </c>
       <c r="I14">
-        <v>0.001128259544160199</v>
+        <v>0.000358970070431155</v>
       </c>
       <c r="J14">
-        <v>0.001128259544160199</v>
+        <v>0.0003787803392163797</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.3525361129076</v>
+        <v>0.3526105</v>
       </c>
       <c r="N14">
-        <v>0.3525361129076</v>
+        <v>0.705221</v>
       </c>
       <c r="O14">
-        <v>0.02266695876843876</v>
+        <v>0.01850298645190735</v>
       </c>
       <c r="P14">
-        <v>0.02266695876843876</v>
+        <v>0.01407895989051319</v>
       </c>
       <c r="Q14">
-        <v>0.02585289560111353</v>
+        <v>0.008897655820166666</v>
       </c>
       <c r="R14">
-        <v>0.02585289560111353</v>
+        <v>0.05338593492099999</v>
       </c>
       <c r="S14">
-        <v>2.557421256757674E-05</v>
+        <v>6.642018349827887E-06</v>
       </c>
       <c r="T14">
-        <v>2.557421256757674E-05</v>
+        <v>5.332833203142392E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.0733340348819515</v>
+        <v>0.02523366666666666</v>
       </c>
       <c r="H15">
-        <v>0.0733340348819515</v>
+        <v>0.07570099999999999</v>
       </c>
       <c r="I15">
-        <v>0.001128259544160199</v>
+        <v>0.000358970070431155</v>
       </c>
       <c r="J15">
-        <v>0.001128259544160199</v>
+        <v>0.0003787803392163797</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>10.5535625572773</v>
+        <v>11.46237866666667</v>
       </c>
       <c r="N15">
-        <v>10.5535625572773</v>
+        <v>34.387136</v>
       </c>
       <c r="O15">
-        <v>0.6785607448069941</v>
+        <v>0.6014802088308917</v>
       </c>
       <c r="P15">
-        <v>0.6785607448069941</v>
+        <v>0.6865012648426838</v>
       </c>
       <c r="Q15">
-        <v>0.7739353247042308</v>
+        <v>0.2892378424817778</v>
       </c>
       <c r="R15">
-        <v>0.7739353247042308</v>
+        <v>2.603140582336</v>
       </c>
       <c r="S15">
-        <v>0.0007655926366209442</v>
+        <v>0.000215913392926971</v>
       </c>
       <c r="T15">
-        <v>0.0007655926366209442</v>
+        <v>0.0002600331819695855</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,184 +1402,184 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.0733340348819515</v>
+        <v>0.02523366666666666</v>
       </c>
       <c r="H16">
-        <v>0.0733340348819515</v>
+        <v>0.07570099999999999</v>
       </c>
       <c r="I16">
-        <v>0.001128259544160199</v>
+        <v>0.000358970070431155</v>
       </c>
       <c r="J16">
-        <v>0.001128259544160199</v>
+        <v>0.0003787803392163797</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.31979691957588</v>
+        <v>0.05152233333333334</v>
       </c>
       <c r="N16">
-        <v>0.31979691957588</v>
+        <v>0.154567</v>
       </c>
       <c r="O16">
-        <v>0.02056193202595423</v>
+        <v>0.002703597980313465</v>
       </c>
       <c r="P16">
-        <v>0.02056193202595423</v>
+        <v>0.003085759773740364</v>
       </c>
       <c r="Q16">
-        <v>0.02345199845531823</v>
+        <v>0.001300097385222222</v>
       </c>
       <c r="R16">
-        <v>0.02345199845531823</v>
+        <v>0.011700876467</v>
       </c>
       <c r="S16">
-        <v>2.319919605465612E-05</v>
+        <v>9.705107574106528E-07</v>
       </c>
       <c r="T16">
-        <v>2.319919605465612E-05</v>
+        <v>1.168825133837634E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.0733340348819515</v>
+        <v>0.02523366666666666</v>
       </c>
       <c r="H17">
-        <v>0.0733340348819515</v>
+        <v>0.07570099999999999</v>
       </c>
       <c r="I17">
-        <v>0.001128259544160199</v>
+        <v>0.000358970070431155</v>
       </c>
       <c r="J17">
-        <v>0.001128259544160199</v>
+        <v>0.0003787803392163797</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>4.3269677876795</v>
+        <v>0.04769766666666667</v>
       </c>
       <c r="N17">
-        <v>4.3269677876795</v>
+        <v>0.143093</v>
       </c>
       <c r="O17">
-        <v>0.2782103643986128</v>
+        <v>0.002502901303622343</v>
       </c>
       <c r="P17">
-        <v>0.2782103643986128</v>
+        <v>0.002856694011683153</v>
       </c>
       <c r="Q17">
-        <v>0.317314006674769</v>
+        <v>0.001203587021444444</v>
       </c>
       <c r="R17">
-        <v>0.317314006674769</v>
+        <v>0.010832283193</v>
       </c>
       <c r="S17">
-        <v>0.0003138934989170217</v>
+        <v>8.98466657243542E-07</v>
       </c>
       <c r="T17">
-        <v>0.0003138934989170217</v>
+        <v>1.082059526782745E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.84226313486372</v>
+        <v>0.02523366666666666</v>
       </c>
       <c r="H18">
-        <v>1.84226313486372</v>
+        <v>0.07570099999999999</v>
       </c>
       <c r="I18">
-        <v>0.02834360564109693</v>
+        <v>0.000358970070431155</v>
       </c>
       <c r="J18">
-        <v>0.02834360564109693</v>
+        <v>0.0003787803392163797</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.3525361129076</v>
+        <v>0.414919</v>
       </c>
       <c r="N18">
-        <v>0.3525361129076</v>
+        <v>1.244757</v>
       </c>
       <c r="O18">
-        <v>0.02266695876843876</v>
+        <v>0.02177258089489379</v>
       </c>
       <c r="P18">
-        <v>0.02266695876843876</v>
+        <v>0.02485020139280528</v>
       </c>
       <c r="Q18">
-        <v>0.6494642845178256</v>
+        <v>0.01046992773966667</v>
       </c>
       <c r="R18">
-        <v>0.6494642845178256</v>
+        <v>0.094229349657</v>
       </c>
       <c r="S18">
-        <v>0.0006424633404156322</v>
+        <v>7.815704897308042E-06</v>
       </c>
       <c r="T18">
-        <v>0.0006424633404156322</v>
+        <v>9.412767713162136E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.84226313486372</v>
+        <v>0.02523366666666666</v>
       </c>
       <c r="H19">
-        <v>1.84226313486372</v>
+        <v>0.07570099999999999</v>
       </c>
       <c r="I19">
-        <v>0.02834360564109693</v>
+        <v>0.000358970070431155</v>
       </c>
       <c r="J19">
-        <v>0.02834360564109693</v>
+        <v>0.0003787803392163797</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>10.5535625572773</v>
+        <v>6.7278225</v>
       </c>
       <c r="N19">
-        <v>10.5535625572773</v>
+        <v>13.455645</v>
       </c>
       <c r="O19">
-        <v>0.6785607448069941</v>
+        <v>0.3530377245383715</v>
       </c>
       <c r="P19">
-        <v>0.6785607448069941</v>
+        <v>0.2686271200885743</v>
       </c>
       <c r="Q19">
-        <v>19.44243924075005</v>
+        <v>0.1697676303575</v>
       </c>
       <c r="R19">
-        <v>19.44243924075005</v>
+        <v>1.018605782145</v>
       </c>
       <c r="S19">
-        <v>0.01923285815433845</v>
+        <v>0.0001267299768423939</v>
       </c>
       <c r="T19">
-        <v>0.01923285815433845</v>
+        <v>0.0001017506716698693</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.84226313486372</v>
+        <v>0.08110000000000001</v>
       </c>
       <c r="H20">
-        <v>1.84226313486372</v>
+        <v>0.2433</v>
       </c>
       <c r="I20">
-        <v>0.02834360564109693</v>
+        <v>0.00115371551413984</v>
       </c>
       <c r="J20">
-        <v>0.02834360564109693</v>
+        <v>0.001217384929278942</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.31979691957588</v>
+        <v>0.3526105</v>
       </c>
       <c r="N20">
-        <v>0.31979691957588</v>
+        <v>0.705221</v>
       </c>
       <c r="O20">
-        <v>0.02056193202595423</v>
+        <v>0.01850298645190735</v>
       </c>
       <c r="P20">
-        <v>0.02056193202595423</v>
+        <v>0.01407895989051319</v>
       </c>
       <c r="Q20">
-        <v>0.5891500755776217</v>
+        <v>0.02859671155</v>
       </c>
       <c r="R20">
-        <v>0.5891500755776217</v>
+        <v>0.1715802693</v>
       </c>
       <c r="S20">
-        <v>0.000582799292562688</v>
+        <v>2.134718252748478E-05</v>
       </c>
       <c r="T20">
-        <v>0.000582799292562688</v>
+        <v>1.713951359063347E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.84226313486372</v>
+        <v>0.08110000000000001</v>
       </c>
       <c r="H21">
-        <v>1.84226313486372</v>
+        <v>0.2433</v>
       </c>
       <c r="I21">
-        <v>0.02834360564109693</v>
+        <v>0.00115371551413984</v>
       </c>
       <c r="J21">
-        <v>0.02834360564109693</v>
+        <v>0.001217384929278942</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.3269677876795</v>
+        <v>11.46237866666667</v>
       </c>
       <c r="N21">
-        <v>4.3269677876795</v>
+        <v>34.387136</v>
       </c>
       <c r="O21">
-        <v>0.2782103643986128</v>
+        <v>0.6014802088308917</v>
       </c>
       <c r="P21">
-        <v>0.2782103643986128</v>
+        <v>0.6865012648426838</v>
       </c>
       <c r="Q21">
-        <v>7.971413240984771</v>
+        <v>0.9295989098666667</v>
       </c>
       <c r="R21">
-        <v>7.971413240984771</v>
+        <v>8.366390188800001</v>
       </c>
       <c r="S21">
-        <v>0.007885484853780152</v>
+        <v>0.0006939370483762706</v>
       </c>
       <c r="T21">
-        <v>0.007885484853780152</v>
+        <v>0.000835736293750415</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>9.54190254826049</v>
+        <v>0.08110000000000001</v>
       </c>
       <c r="H22">
-        <v>9.54190254826049</v>
+        <v>0.2433</v>
       </c>
       <c r="I22">
-        <v>0.1468041767625555</v>
+        <v>0.00115371551413984</v>
       </c>
       <c r="J22">
-        <v>0.1468041767625555</v>
+        <v>0.001217384929278942</v>
       </c>
       <c r="K22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.3525361129076</v>
+        <v>0.05152233333333334</v>
       </c>
       <c r="N22">
-        <v>0.3525361129076</v>
+        <v>0.154567</v>
       </c>
       <c r="O22">
-        <v>0.02266695876843876</v>
+        <v>0.002703597980313465</v>
       </c>
       <c r="P22">
-        <v>0.02266695876843876</v>
+        <v>0.003085759773740364</v>
       </c>
       <c r="Q22">
-        <v>3.363865234106876</v>
+        <v>0.004178461233333334</v>
       </c>
       <c r="R22">
-        <v>3.363865234106876</v>
+        <v>0.03760615110000001</v>
       </c>
       <c r="S22">
-        <v>0.003327604221711441</v>
+        <v>3.119182933884782E-06</v>
       </c>
       <c r="T22">
-        <v>0.003327604221711441</v>
+        <v>3.756557443926718E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>9.54190254826049</v>
+        <v>0.08110000000000001</v>
       </c>
       <c r="H23">
-        <v>9.54190254826049</v>
+        <v>0.2433</v>
       </c>
       <c r="I23">
-        <v>0.1468041767625555</v>
+        <v>0.00115371551413984</v>
       </c>
       <c r="J23">
-        <v>0.1468041767625555</v>
+        <v>0.001217384929278942</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M23">
-        <v>10.5535625572773</v>
+        <v>0.04769766666666667</v>
       </c>
       <c r="N23">
-        <v>10.5535625572773</v>
+        <v>0.143093</v>
       </c>
       <c r="O23">
-        <v>0.6785607448069941</v>
+        <v>0.002502901303622343</v>
       </c>
       <c r="P23">
-        <v>0.6785607448069941</v>
+        <v>0.002856694011683153</v>
       </c>
       <c r="Q23">
-        <v>100.7010654585108</v>
+        <v>0.003868280766666667</v>
       </c>
       <c r="R23">
-        <v>100.7010654585108</v>
+        <v>0.0348145269</v>
       </c>
       <c r="S23">
-        <v>0.09961555152477727</v>
+        <v>2.887636064349927E-06</v>
       </c>
       <c r="T23">
-        <v>0.09961555152477727</v>
+        <v>3.477696237384472E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1901,57 +1901,57 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>9.54190254826049</v>
+        <v>0.08110000000000001</v>
       </c>
       <c r="H24">
-        <v>9.54190254826049</v>
+        <v>0.2433</v>
       </c>
       <c r="I24">
-        <v>0.1468041767625555</v>
+        <v>0.00115371551413984</v>
       </c>
       <c r="J24">
-        <v>0.1468041767625555</v>
+        <v>0.001217384929278942</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.31979691957588</v>
+        <v>0.414919</v>
       </c>
       <c r="N24">
-        <v>0.31979691957588</v>
+        <v>1.244757</v>
       </c>
       <c r="O24">
-        <v>0.02056193202595423</v>
+        <v>0.02177258089489379</v>
       </c>
       <c r="P24">
-        <v>0.02056193202595423</v>
+        <v>0.02485020139280528</v>
       </c>
       <c r="Q24">
-        <v>3.051471041826944</v>
+        <v>0.03364993090000001</v>
       </c>
       <c r="R24">
-        <v>3.051471041826944</v>
+        <v>0.3028493781000001</v>
       </c>
       <c r="S24">
-        <v>0.003018577503717836</v>
+        <v>2.511936436130365E-05</v>
       </c>
       <c r="T24">
-        <v>0.003018577503717836</v>
+        <v>3.025226066514773E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,52 +1963,796 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>9.54190254826049</v>
+        <v>0.08110000000000001</v>
       </c>
       <c r="H25">
-        <v>9.54190254826049</v>
+        <v>0.2433</v>
       </c>
       <c r="I25">
-        <v>0.1468041767625555</v>
+        <v>0.00115371551413984</v>
       </c>
       <c r="J25">
-        <v>0.1468041767625555</v>
+        <v>0.001217384929278942</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.3269677876795</v>
+        <v>6.7278225</v>
       </c>
       <c r="N25">
-        <v>4.3269677876795</v>
+        <v>13.455645</v>
       </c>
       <c r="O25">
-        <v>0.2782103643986128</v>
+        <v>0.3530377245383715</v>
       </c>
       <c r="P25">
-        <v>0.2782103643986128</v>
+        <v>0.2686271200885743</v>
       </c>
       <c r="Q25">
-        <v>41.28750495950008</v>
+        <v>0.54562640475</v>
       </c>
       <c r="R25">
-        <v>41.28750495950008</v>
+        <v>3.2737584285</v>
       </c>
       <c r="S25">
-        <v>0.04084244351234893</v>
+        <v>0.0004073050998765465</v>
       </c>
       <c r="T25">
-        <v>0.04084244351234893</v>
+        <v>0.0003270226075914349</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2.060578</v>
+      </c>
+      <c r="H26">
+        <v>6.181734</v>
+      </c>
+      <c r="I26">
+        <v>0.02931345014420769</v>
+      </c>
+      <c r="J26">
+        <v>0.03093115416527428</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.3526105</v>
+      </c>
+      <c r="N26">
+        <v>0.705221</v>
+      </c>
+      <c r="O26">
+        <v>0.01850298645190735</v>
+      </c>
+      <c r="P26">
+        <v>0.01407895989051319</v>
+      </c>
+      <c r="Q26">
+        <v>0.726581438869</v>
+      </c>
+      <c r="R26">
+        <v>4.359488633213999</v>
+      </c>
+      <c r="S26">
+        <v>0.0005423863708769363</v>
+      </c>
+      <c r="T26">
+        <v>0.0004354784788601767</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>2.060578</v>
+      </c>
+      <c r="H27">
+        <v>6.181734</v>
+      </c>
+      <c r="I27">
+        <v>0.02931345014420769</v>
+      </c>
+      <c r="J27">
+        <v>0.03093115416527428</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>11.46237866666667</v>
+      </c>
+      <c r="N27">
+        <v>34.387136</v>
+      </c>
+      <c r="O27">
+        <v>0.6014802088308917</v>
+      </c>
+      <c r="P27">
+        <v>0.6865012648426838</v>
+      </c>
+      <c r="Q27">
+        <v>23.61912530820267</v>
+      </c>
+      <c r="R27">
+        <v>212.572127773824</v>
+      </c>
+      <c r="S27">
+        <v>0.01763146011429197</v>
+      </c>
+      <c r="T27">
+        <v>0.02123427645750484</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>2.060578</v>
+      </c>
+      <c r="H28">
+        <v>6.181734</v>
+      </c>
+      <c r="I28">
+        <v>0.02931345014420769</v>
+      </c>
+      <c r="J28">
+        <v>0.03093115416527428</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.05152233333333334</v>
+      </c>
+      <c r="N28">
+        <v>0.154567</v>
+      </c>
+      <c r="O28">
+        <v>0.002703597980313465</v>
+      </c>
+      <c r="P28">
+        <v>0.003085759773740364</v>
+      </c>
+      <c r="Q28">
+        <v>0.1061657865753333</v>
+      </c>
+      <c r="R28">
+        <v>0.9554920791780001</v>
+      </c>
+      <c r="S28">
+        <v>7.925178460589934E-05</v>
+      </c>
+      <c r="T28">
+        <v>9.544611127856506E-05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>2.060578</v>
+      </c>
+      <c r="H29">
+        <v>6.181734</v>
+      </c>
+      <c r="I29">
+        <v>0.02931345014420769</v>
+      </c>
+      <c r="J29">
+        <v>0.03093115416527428</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.04769766666666667</v>
+      </c>
+      <c r="N29">
+        <v>0.143093</v>
+      </c>
+      <c r="O29">
+        <v>0.002502901303622343</v>
+      </c>
+      <c r="P29">
+        <v>0.002856694011683153</v>
+      </c>
+      <c r="Q29">
+        <v>0.09828476258466666</v>
+      </c>
+      <c r="R29">
+        <v>0.884562863262</v>
+      </c>
+      <c r="S29">
+        <v>7.336867257960596E-05</v>
+      </c>
+      <c r="T29">
+        <v>8.836084287838742E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>2.060578</v>
+      </c>
+      <c r="H30">
+        <v>6.181734</v>
+      </c>
+      <c r="I30">
+        <v>0.02931345014420769</v>
+      </c>
+      <c r="J30">
+        <v>0.03093115416527428</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.414919</v>
+      </c>
+      <c r="N30">
+        <v>1.244757</v>
+      </c>
+      <c r="O30">
+        <v>0.02177258089489379</v>
+      </c>
+      <c r="P30">
+        <v>0.02485020139280528</v>
+      </c>
+      <c r="Q30">
+        <v>0.8549729631820001</v>
+      </c>
+      <c r="R30">
+        <v>7.694756668638</v>
+      </c>
+      <c r="S30">
+        <v>0.0006382294645731978</v>
+      </c>
+      <c r="T30">
+        <v>0.0007686454103189738</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>2.060578</v>
+      </c>
+      <c r="H31">
+        <v>6.181734</v>
+      </c>
+      <c r="I31">
+        <v>0.02931345014420769</v>
+      </c>
+      <c r="J31">
+        <v>0.03093115416527428</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>6.7278225</v>
+      </c>
+      <c r="N31">
+        <v>13.455645</v>
+      </c>
+      <c r="O31">
+        <v>0.3530377245383715</v>
+      </c>
+      <c r="P31">
+        <v>0.2686271200885743</v>
+      </c>
+      <c r="Q31">
+        <v>13.863203031405</v>
+      </c>
+      <c r="R31">
+        <v>83.17921818843</v>
+      </c>
+      <c r="S31">
+        <v>0.01034875373728008</v>
+      </c>
+      <c r="T31">
+        <v>0.008308946864433337</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>10.1875185</v>
+      </c>
+      <c r="H32">
+        <v>20.375037</v>
+      </c>
+      <c r="I32">
+        <v>0.1449259943777636</v>
+      </c>
+      <c r="J32">
+        <v>0.1019492929605459</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.3526105</v>
+      </c>
+      <c r="N32">
+        <v>0.705221</v>
+      </c>
+      <c r="O32">
+        <v>0.01850298645190735</v>
+      </c>
+      <c r="P32">
+        <v>0.01407895989051319</v>
+      </c>
+      <c r="Q32">
+        <v>3.59222599204425</v>
+      </c>
+      <c r="R32">
+        <v>14.368903968177</v>
+      </c>
+      <c r="S32">
+        <v>0.002681563710500961</v>
+      </c>
+      <c r="T32">
+        <v>0.001435340006457705</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>10.1875185</v>
+      </c>
+      <c r="H33">
+        <v>20.375037</v>
+      </c>
+      <c r="I33">
+        <v>0.1449259943777636</v>
+      </c>
+      <c r="J33">
+        <v>0.1019492929605459</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>11.46237866666667</v>
+      </c>
+      <c r="N33">
+        <v>34.387136</v>
+      </c>
+      <c r="O33">
+        <v>0.6014802088308917</v>
+      </c>
+      <c r="P33">
+        <v>0.6865012648426838</v>
+      </c>
+      <c r="Q33">
+        <v>116.773194720672</v>
+      </c>
+      <c r="R33">
+        <v>700.639168324032</v>
+      </c>
+      <c r="S33">
+        <v>0.0871701173633619</v>
+      </c>
+      <c r="T33">
+        <v>0.0699883185672321</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>10.1875185</v>
+      </c>
+      <c r="H34">
+        <v>20.375037</v>
+      </c>
+      <c r="I34">
+        <v>0.1449259943777636</v>
+      </c>
+      <c r="J34">
+        <v>0.1019492929605459</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.05152233333333334</v>
+      </c>
+      <c r="N34">
+        <v>0.154567</v>
+      </c>
+      <c r="O34">
+        <v>0.002703597980313465</v>
+      </c>
+      <c r="P34">
+        <v>0.003085759773740364</v>
+      </c>
+      <c r="Q34">
+        <v>0.5248847239965</v>
+      </c>
+      <c r="R34">
+        <v>3.149308343979</v>
+      </c>
+      <c r="S34">
+        <v>0.0003918216256946423</v>
+      </c>
+      <c r="T34">
+        <v>0.0003145910271789243</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>10.1875185</v>
+      </c>
+      <c r="H35">
+        <v>20.375037</v>
+      </c>
+      <c r="I35">
+        <v>0.1449259943777636</v>
+      </c>
+      <c r="J35">
+        <v>0.1019492929605459</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M35">
+        <v>0.04769766666666667</v>
+      </c>
+      <c r="N35">
+        <v>0.143093</v>
+      </c>
+      <c r="O35">
+        <v>0.002502901303622343</v>
+      </c>
+      <c r="P35">
+        <v>0.002856694011683153</v>
+      </c>
+      <c r="Q35">
+        <v>0.4859208615735</v>
+      </c>
+      <c r="R35">
+        <v>2.915525169441</v>
+      </c>
+      <c r="S35">
+        <v>0.0003627354602568689</v>
+      </c>
+      <c r="T35">
+        <v>0.000291237934695723</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>10.1875185</v>
+      </c>
+      <c r="H36">
+        <v>20.375037</v>
+      </c>
+      <c r="I36">
+        <v>0.1449259943777636</v>
+      </c>
+      <c r="J36">
+        <v>0.1019492929605459</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.414919</v>
+      </c>
+      <c r="N36">
+        <v>1.244757</v>
+      </c>
+      <c r="O36">
+        <v>0.02177258089489379</v>
+      </c>
+      <c r="P36">
+        <v>0.02485020139280528</v>
+      </c>
+      <c r="Q36">
+        <v>4.226994988501501</v>
+      </c>
+      <c r="R36">
+        <v>25.361969931009</v>
+      </c>
+      <c r="S36">
+        <v>0.003155412936362781</v>
+      </c>
+      <c r="T36">
+        <v>0.002533460461923672</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>10.1875185</v>
+      </c>
+      <c r="H37">
+        <v>20.375037</v>
+      </c>
+      <c r="I37">
+        <v>0.1449259943777636</v>
+      </c>
+      <c r="J37">
+        <v>0.1019492929605459</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>6.7278225</v>
+      </c>
+      <c r="N37">
+        <v>13.455645</v>
+      </c>
+      <c r="O37">
+        <v>0.3530377245383715</v>
+      </c>
+      <c r="P37">
+        <v>0.2686271200885743</v>
+      </c>
+      <c r="Q37">
+        <v>68.53981618346624</v>
+      </c>
+      <c r="R37">
+        <v>274.159264733865</v>
+      </c>
+      <c r="S37">
+        <v>0.05116434328158648</v>
+      </c>
+      <c r="T37">
+        <v>0.02738634496305781</v>
       </c>
     </row>
   </sheetData>
